--- a/sample-section/v2.0.0/sample-section-v2.0.0.xlsx
+++ b/sample-section/v2.0.0/sample-section-v2.0.0.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
   <si>
     <t>sample_id</t>
   </si>
@@ -184,6 +184,18 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
   </si>
   <si>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
+  </si>
+  <si>
     <t>Ethanol</t>
   </si>
   <si>
@@ -202,48 +214,42 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
   </si>
   <si>
-    <t>Neutral Buffered Formalin (NBF)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
-  </si>
-  <si>
-    <t>PFA</t>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>MACS tissue storage solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
+  </si>
+  <si>
+    <t>Fresh frozen CMC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
+  </si>
+  <si>
+    <t>Inflated (OCT)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
+  </si>
+  <si>
+    <t>Fresh frozen gelatin</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
+  </si>
+  <si>
+    <t>PFA (Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
   </si>
   <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
-    <t>MACS tissue storage solution</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
-  </si>
-  <si>
-    <t>Fresh frozen CMC</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
-  </si>
-  <si>
-    <t>Inflated (OCT)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
-  </si>
-  <si>
-    <t>Fresh frozen gelatin</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
-  </si>
-  <si>
     <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
   </si>
   <si>
@@ -388,24 +394,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
   </si>
   <si>
-    <t>Paraffin embedded (FFPE)</t>
+    <t>DMSO (with serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
   </si>
   <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -502,7 +508,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:15:00-07:00</t>
+    <t>2023-08-04T07:35:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -634,51 +640,51 @@
         <v>13</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="R2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +697,7 @@
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$21</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
@@ -750,30 +756,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +842,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,6 +1014,14 @@
       </c>
       <c r="B21" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1025,82 +1039,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1193,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -1195,10 +1209,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1211,106 +1225,106 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1328,90 +1342,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1429,34 +1443,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1474,26 +1488,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/v2.0.0/sample-section-v2.0.0.xlsx
+++ b/sample-section/v2.0.0/sample-section-v2.0.0.xlsx
@@ -508,7 +508,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:35:19-07:00</t>
+    <t>2023-08-11T13:11:31-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -689,7 +689,7 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThan" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -702,7 +702,7 @@
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -715,18 +715,18 @@
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'thickness_unit'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/sample-section/v2.0.0/sample-section-v2.0.0.xlsx
+++ b/sample-section/v2.0.0/sample-section-v2.0.0.xlsx
@@ -124,8 +124,8 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The string that serves as the definitive identifier for the metadata schema
-version and is readily interpretable by computers for data validation and
+        <t>(Required) The string that serves as the definitive identifier for the metadata
+schema version and is readily interpretable by computers for data validation and
 processing.</t>
       </text>
     </comment>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>sample_id</t>
   </si>
@@ -190,36 +190,36 @@
     <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
-    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-Lysine-Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
-  </si>
-  <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
     <t>MACS tissue storage solution</t>
   </si>
   <si>
@@ -337,6 +337,72 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185338</t>
   </si>
   <si>
+    <t>Frozen at -20 degrees celsius</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
+  </si>
+  <si>
+    <t>Frozen on dry ice</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
+  </si>
+  <si>
+    <t>processing_time_value</t>
+  </si>
+  <si>
+    <t>processing_time_unit</t>
+  </si>
+  <si>
+    <t>storage_medium</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
+  </si>
+  <si>
+    <t>DMSO (no serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
+  </si>
+  <si>
+    <t>Tris-EDTA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>DMSO (serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
+  </si>
+  <si>
+    <t>storage_method</t>
+  </si>
+  <si>
     <t>Incubated at 37 degrees celsius</t>
   </si>
   <si>
@@ -349,78 +415,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000132</t>
   </si>
   <si>
-    <t>Frozen at -20 degrees celsius</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
-  </si>
-  <si>
-    <t>Frozen on dry ice</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
-  </si>
-  <si>
     <t>Stored in refrigerator</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
   </si>
   <si>
-    <t>processing_time_value</t>
-  </si>
-  <si>
-    <t>processing_time_unit</t>
-  </si>
-  <si>
-    <t>storage_medium</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
-  </si>
-  <si>
-    <t>DMSO (no serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
-  </si>
-  <si>
-    <t>Tris-EDTA</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
-  </si>
-  <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
-    <t>FFPE (Paraffin embedded)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
-  </si>
-  <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
-  </si>
-  <si>
-    <t>storage_method</t>
-  </si>
-  <si>
     <t>quality_criteria</t>
   </si>
   <si>
@@ -451,12 +451,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000015</t>
   </si>
   <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000018</t>
-  </si>
-  <si>
     <t>section_index_number</t>
   </si>
   <si>
@@ -466,12 +460,6 @@
     <t>area_unit</t>
   </si>
   <si>
-    <t>cm^2</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000081</t>
-  </si>
-  <si>
     <t>um^2</t>
   </si>
   <si>
@@ -508,7 +496,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:11:31-07:00</t>
+    <t>2023-09-08T20:49:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -643,16 +631,16 @@
         <v>58</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s" s="1">
         <v>95</v>
@@ -667,24 +655,24 @@
         <v>98</v>
       </c>
       <c r="N1" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s" s="1">
         <v>107</v>
       </c>
-      <c r="O1" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>109</v>
-      </c>
       <c r="Q1" t="s" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="R2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -700,14 +688,14 @@
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+      <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_medium'!$A$1:$A$18</formula1>
@@ -720,7 +708,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'thickness_unit'!$A$1:$A$4</formula1>
+      <formula1>'thickness_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
@@ -731,7 +719,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'area_unit'!$A$1:$A$3</formula1>
+      <formula1>'area_unit'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -756,30 +744,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1093,30 +1081,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1124,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1140,33 +1104,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1193,10 +1141,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1209,26 +1157,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1249,34 +1197,34 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -1289,18 +1237,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1382,42 +1330,42 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -1434,51 +1382,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1488,26 +1391,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
